--- a/va_facility_data_2025-02-20/Columbus Downtown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Columbus%20Downtown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Columbus Downtown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Columbus%20Downtown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5ad2b11a7852430eb98ba3d65900abd2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdb5fb86cd44e4762a5c412e796daa764"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd80e859d7e854311a529143e4c191b06"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8b4e29e306124971b455dc82e8981867"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8d5a3affb69c44648d95c9c3f66cfca6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2b9efc2869224e1aae35d982b2c6d3d6"/>
   </x:sheets>
 </x:workbook>
 </file>
